--- a/biology/Médecine/Aaron_Ciechanover/Aaron_Ciechanover.xlsx
+++ b/biology/Médecine/Aaron_Ciechanover/Aaron_Ciechanover.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aaron Ciechanover, né le 1er octobre 1947 à Haïfa en Israël, est un biologiste israélien. Avec Avram Hershko et Irwin Rose, il est colauréat du prix Nobel de chimie de 2004 « pour leur découverte de la dégradation contrôlée des protéines par l'ubiquitine[1] ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aaron Ciechanover, né le 1er octobre 1947 à Haïfa en Israël, est un biologiste israélien. Avec Avram Hershko et Irwin Rose, il est colauréat du prix Nobel de chimie de 2004 « pour leur découverte de la dégradation contrôlée des protéines par l'ubiquitine ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Haïfa en Israël, il reçoit son master of science en 1971 et son M.D. en 1974 à l'école de médecine de Hadassah de l'université hébraïque de Jérusalem. Il reçoit en 1982 son doctorat en médecine du Technion à Haïfa.
 En 2010, il est professeur dans l'unité de biochimie et directeur de l'institut Rappaport pour la recherche médicale au Technion.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hershko, A., Ciechanover, A., et Rose, I.A. (1979) « Resolution of the ATP-dependent proteolytic system from reticulocytes: A component that interacts with ATP ». Proc. Natl. Acad. Sci. USA 76, p. 3107-3110.
 Hershko, A., Ciechanover, A., Heller, H., Haas, A.L., et Rose I.A. (1980) « Proposed role of ATP in protein breakdown: Conjugation of proteins with multiple chains of the polypeptide of ATP-dependent proteolysis ». Proc. Natl. Acad. Sci. USA 77, p. 1783-1786.</t>
